--- a/Result/20250214_Percentage_Mulitple_GSA/res_20250214_Percetange_Mulitple_GSAs_IEEE_30.xlsx
+++ b/Result/20250214_Percentage_Mulitple_GSA/res_20250214_Percetange_Mulitple_GSAs_IEEE_30.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10513"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/felipenoris/tmp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://iitbacin-my.sharepoint.com/personal/214070018_iitb_ac_in/Documents/Desktop/SRSE_Simulation/Result/20250214_Percentage_Mulitple_GSA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C353BCB8-5EC8-0143-BDD3-A1B661DAACD7}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{C353BCB8-5EC8-0143-BDD3-A1B661DAACD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FC0D4CF6-240B-4CC8-BBE1-08F7B34BD69D}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{52D9C27D-0EF6-DD41-9728-0267E68F7539}"/>
+    <workbookView xWindow="10530" yWindow="3105" windowWidth="21600" windowHeight="11295" xr2:uid="{52D9C27D-0EF6-DD41-9728-0267E68F7539}"/>
   </bookViews>
   <sheets>
     <sheet name="ieee30" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>LSE_PA_mean</t>
   </si>
@@ -101,6 +101,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -400,13 +404,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17:C21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.75" customWidth="1"/>
+    <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.25" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -432,41 +448,41 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0.11908368766307831</v>
       </c>
       <c r="B2">
-        <v>55.7392463684082</v>
+        <v>55.739246368408203</v>
       </c>
       <c r="C2">
-        <v>0.0011612452799454331</v>
+        <v>1.1612452799454331E-3</v>
       </c>
       <c r="D2">
-        <v>0.0935097262263298</v>
+        <v>9.3509726226329803E-2</v>
       </c>
       <c r="E2">
         <v>0.11542373150587082</v>
       </c>
       <c r="F2">
-        <v>55.2962760925293</v>
+        <v>55.296276092529297</v>
       </c>
       <c r="G2">
-        <v>0.0011402234667912126</v>
+        <v>1.1402234667912126E-3</v>
       </c>
       <c r="H2">
-        <v>0.03974929451942444</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>3.9749294519424438E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0.2117300182580948</v>
+        <v>0.21173001825809479</v>
       </c>
       <c r="B3">
         <v>175.49456787109375</v>
       </c>
       <c r="C3">
-        <v>0.0013291311915963888</v>
+        <v>1.3291311915963888E-3</v>
       </c>
       <c r="D3">
         <v>0.10366631299257278</v>
@@ -478,21 +494,21 @@
         <v>54.7799072265625</v>
       </c>
       <c r="G3">
-        <v>0.0011487549636512995</v>
+        <v>1.1487549636512995E-3</v>
       </c>
       <c r="H3">
-        <v>0.0403083898127079</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>4.0308389812707901E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>0.2972084581851959</v>
+        <v>0.29720845818519592</v>
       </c>
       <c r="B4">
-        <v>345.0599670410156</v>
+        <v>345.05996704101563</v>
       </c>
       <c r="C4">
-        <v>0.001605859724804759</v>
+        <v>1.605859724804759E-3</v>
       </c>
       <c r="D4">
         <v>0.16229192912578583</v>
@@ -504,21 +520,21 @@
         <v>53.22100830078125</v>
       </c>
       <c r="G4">
-        <v>0.0011487879091873765</v>
+        <v>1.1487879091873765E-3</v>
       </c>
       <c r="H4">
-        <v>0.0331282801926136</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>3.3128280192613602E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0.33544921875</v>
       </c>
       <c r="B5">
-        <v>439.3478088378906</v>
+        <v>439.34780883789063</v>
       </c>
       <c r="C5">
-        <v>0.00136465928517282</v>
+        <v>1.3646592851728201E-3</v>
       </c>
       <c r="D5">
         <v>0.17288662493228912</v>
@@ -527,24 +543,24 @@
         <v>0.11290813237428665</v>
       </c>
       <c r="F5">
-        <v>52.65271759033203</v>
+        <v>52.652717590332031</v>
       </c>
       <c r="G5">
-        <v>0.0011458750814199448</v>
+        <v>1.1458750814199448E-3</v>
       </c>
       <c r="H5">
-        <v>0.03804014250636101</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>3.8040142506361008E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>0.3448377549648285</v>
+        <v>0.34483775496482849</v>
       </c>
       <c r="B6">
         <v>464.2249755859375</v>
       </c>
       <c r="C6">
-        <v>0.0015479115536436439</v>
+        <v>1.5479115536436439E-3</v>
       </c>
       <c r="D6">
         <v>0.19137932360172272</v>
@@ -553,24 +569,24 @@
         <v>0.11254281550645828</v>
       </c>
       <c r="F6">
-        <v>52.04817199707031</v>
+        <v>52.048171997070313</v>
       </c>
       <c r="G6">
-        <v>0.0011481570545583963</v>
+        <v>1.1481570545583963E-3</v>
       </c>
       <c r="H6">
-        <v>0.035939835011959076</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>3.5939835011959076E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>0.329246461391449</v>
+        <v>0.32924646139144897</v>
       </c>
       <c r="B7">
-        <v>423.2274475097656</v>
+        <v>423.22744750976563</v>
       </c>
       <c r="C7">
-        <v>0.0019527224358171225</v>
+        <v>1.9527224358171225E-3</v>
       </c>
       <c r="D7">
         <v>0.17072121798992157</v>
@@ -579,16 +595,16 @@
         <v>0.11157061159610748</v>
       </c>
       <c r="F7">
-        <v>50.92628479003906</v>
+        <v>50.926284790039063</v>
       </c>
       <c r="G7">
-        <v>0.0011379208881407976</v>
+        <v>1.1379208881407976E-3</v>
       </c>
       <c r="H7">
-        <v>0.04194644093513489</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>4.1946440935134888E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0.34192365407943726</v>
       </c>
@@ -596,7 +612,7 @@
         <v>456.4183349609375</v>
       </c>
       <c r="C8">
-        <v>0.001592421205714345</v>
+        <v>1.592421205714345E-3</v>
       </c>
       <c r="D8">
         <v>0.1449863612651825</v>
@@ -608,13 +624,13 @@
         <v>52.059818267822266</v>
       </c>
       <c r="G8">
-        <v>0.0011489457683637738</v>
+        <v>1.1489457683637738E-3</v>
       </c>
       <c r="H8">
-        <v>0.04189001023769379</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>4.1890010237693787E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0.32489797472953796</v>
       </c>
@@ -622,7 +638,7 @@
         <v>412.140869140625</v>
       </c>
       <c r="C9">
-        <v>0.0016788800712674856</v>
+        <v>1.6788800712674856E-3</v>
       </c>
       <c r="D9">
         <v>0.14118659496307373</v>
@@ -631,50 +647,50 @@
         <v>0.11292829364538193</v>
       </c>
       <c r="F9">
-        <v>52.74525833129883</v>
+        <v>52.745258331298828</v>
       </c>
       <c r="G9">
-        <v>0.0011455524945631623</v>
+        <v>1.1455524945631623E-3</v>
       </c>
       <c r="H9">
-        <v>0.03697088733315468</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>3.6970887333154678E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>0.3065231740474701</v>
+        <v>0.30652317404747009</v>
       </c>
       <c r="B10">
         <v>366.9678955078125</v>
       </c>
       <c r="C10">
-        <v>0.0015097889117896557</v>
+        <v>1.5097889117896557E-3</v>
       </c>
       <c r="D10">
-        <v>0.133871927857399</v>
+        <v>0.13387192785739899</v>
       </c>
       <c r="E10">
         <v>0.11350403726100922</v>
       </c>
       <c r="F10">
-        <v>53.26329803466797</v>
+        <v>53.263298034667969</v>
       </c>
       <c r="G10">
-        <v>0.0011410819133743644</v>
+        <v>1.1410819133743644E-3</v>
       </c>
       <c r="H10">
-        <v>0.03943289816379547</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>3.9432898163795471E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0.2179170697927475</v>
       </c>
       <c r="B11">
-        <v>185.8212127685547</v>
+        <v>185.82121276855469</v>
       </c>
       <c r="C11">
-        <v>0.0012235904578119516</v>
+        <v>1.2235904578119516E-3</v>
       </c>
       <c r="D11">
         <v>0.10461144894361496</v>
@@ -683,39 +699,79 @@
         <v>0.11521628499031067</v>
       </c>
       <c r="F11">
-        <v>55.10649871826172</v>
+        <v>55.106498718261719</v>
       </c>
       <c r="G11">
-        <v>0.0011411276645958424</v>
+        <v>1.1411276645958424E-3</v>
       </c>
       <c r="H11">
-        <v>0.041882917284965515</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>4.1882917284965515E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0.11891026794910431</v>
       </c>
       <c r="B12">
-        <v>55.56407165527344</v>
+        <v>55.564071655273438</v>
       </c>
       <c r="C12">
-        <v>0.0011651321547105908</v>
+        <v>1.1651321547105908E-3</v>
       </c>
       <c r="D12">
-        <v>0.09013807773590088</v>
+        <v>9.0138077735900879E-2</v>
       </c>
       <c r="E12">
         <v>0.11499730497598648</v>
       </c>
       <c r="F12">
-        <v>54.92013931274414</v>
+        <v>54.920139312744141</v>
       </c>
       <c r="G12">
-        <v>0.0011422693496569991</v>
+        <v>1.1422693496569991E-3</v>
       </c>
       <c r="H12">
-        <v>0.0397273413836956</v>
+        <v>3.9727341383695602E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>0.21173001825809479</v>
+      </c>
+      <c r="C17">
+        <v>0.11505936831235886</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>0.29720845818519592</v>
+      </c>
+      <c r="C18">
+        <v>0.11333589255809784</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>0.33544921875</v>
+      </c>
+      <c r="C19">
+        <v>0.11290813237428665</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>0.34483775496482849</v>
+      </c>
+      <c r="C20">
+        <v>0.11254281550645828</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>0.32924646139144897</v>
+      </c>
+      <c r="C21">
+        <v>0.11157061159610748</v>
       </c>
     </row>
   </sheetData>
